--- a/input_data/Molecular_data/SD1_Voucher_specimens_metadata.xlsx
+++ b/input_data/Molecular_data/SD1_Voucher_specimens_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Temporary Working Folder\September 2024\R_projects\Ponerinae_Historical_Biogeography\input_data\Molecular_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael_D\R_projects\Ponerinae_Historical_Biogeography\input_data\Molecular_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95845490-248A-4155-8A06-58D458E0B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C186F77-3ECE-4A8D-8528-18070EDF627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="25935" yWindow="3360" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -12625,9 +12625,6 @@
     <t>South Africa: Western Cape, Eden, 14 km ENE KnysDiepwalle S. F.</t>
   </si>
   <si>
-    <t>Madagascar: Sofia, BealanaRegion Sofia, Ampotsidia</t>
-  </si>
-  <si>
     <t>Brazil: ParaPalotiPalotiP.E. São Camilo</t>
   </si>
   <si>
@@ -12815,6 +12812,9 @@
   </si>
   <si>
     <t>Panama: Provincia de Panamá, ChepigaReserva Chucanti</t>
+  </si>
+  <si>
+    <t>Mozambique: Cabo Delgado, Parque Nacional Quirimbas, Taratibu</t>
   </si>
 </sst>
 </file>
@@ -13150,12 +13150,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="S196" sqref="S196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23199,13 +23200,13 @@
         <v>4184</v>
       </c>
       <c r="S196" t="s">
-        <v>4201</v>
+        <v>4264</v>
       </c>
       <c r="T196">
-        <v>-14.4</v>
+        <v>-12.82</v>
       </c>
       <c r="U196">
-        <v>48.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="V196" t="s">
         <v>150</v>
@@ -23596,7 +23597,7 @@
         <v>1166</v>
       </c>
       <c r="S204" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="T204">
         <v>-24.32</v>
@@ -23649,7 +23650,7 @@
         <v>1166</v>
       </c>
       <c r="S205" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="T205">
         <v>-25.5</v>
@@ -23702,7 +23703,7 @@
         <v>1166</v>
       </c>
       <c r="S206" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="T206">
         <v>-25.45</v>
@@ -23914,7 +23915,7 @@
         <v>1166</v>
       </c>
       <c r="S210" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="T210">
         <v>-24.85</v>
@@ -24020,7 +24021,7 @@
         <v>1214</v>
       </c>
       <c r="S212" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="T212">
         <v>10.33</v>
@@ -24029,7 +24030,7 @@
         <v>-84.5</v>
       </c>
       <c r="V212" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="W212" t="s">
         <v>92</v>
@@ -24120,7 +24121,7 @@
         <v>4184</v>
       </c>
       <c r="S214" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="T214">
         <v>-4.22</v>
@@ -24173,7 +24174,7 @@
         <v>4184</v>
       </c>
       <c r="S215" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="T215">
         <v>-12.43</v>
@@ -24729,7 +24730,7 @@
         <v>4184</v>
       </c>
       <c r="S226" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="T226">
         <v>-12.77</v>
@@ -26130,7 +26131,7 @@
         <v>4184</v>
       </c>
       <c r="S253" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="T253">
         <v>-17.920000000000002</v>
@@ -26936,7 +26937,7 @@
         <v>4184</v>
       </c>
       <c r="S269" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="T269">
         <v>31.9</v>
@@ -28248,7 +28249,7 @@
         <v>4184</v>
       </c>
       <c r="S295" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="T295">
         <v>-23.2</v>
@@ -28398,7 +28399,7 @@
         <v>4184</v>
       </c>
       <c r="S298" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="T298">
         <v>-20.73</v>
@@ -28707,7 +28708,7 @@
         <v>4184</v>
       </c>
       <c r="S304" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="T304">
         <v>-12.87</v>
@@ -28807,7 +28808,7 @@
         <v>4184</v>
       </c>
       <c r="S306" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="T306">
         <v>-13.1</v>
@@ -28857,7 +28858,7 @@
         <v>4184</v>
       </c>
       <c r="S307" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="T307">
         <v>-20.72</v>
@@ -29060,7 +29061,7 @@
         <v>4184</v>
       </c>
       <c r="S311" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="T311">
         <v>-14.33</v>
@@ -29266,7 +29267,7 @@
         <v>4184</v>
       </c>
       <c r="S315" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="T315">
         <v>-12.92</v>
@@ -29416,7 +29417,7 @@
         <v>4184</v>
       </c>
       <c r="S318" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="T318">
         <v>-23.2</v>
@@ -29569,7 +29570,7 @@
         <v>4184</v>
       </c>
       <c r="S321" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="T321">
         <v>-21.22</v>
@@ -29719,7 +29720,7 @@
         <v>4184</v>
       </c>
       <c r="S324" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="T324">
         <v>-13.1</v>
@@ -29928,7 +29929,7 @@
         <v>4184</v>
       </c>
       <c r="S328" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="T328">
         <v>-21.28</v>
@@ -30028,7 +30029,7 @@
         <v>4184</v>
       </c>
       <c r="S330" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="T330">
         <v>-17.77</v>
@@ -30572,7 +30573,7 @@
         <v>4184</v>
       </c>
       <c r="S341" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="T341">
         <v>-22.25</v>
@@ -31666,7 +31667,7 @@
         <v>4184</v>
       </c>
       <c r="S363" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="T363">
         <v>-16.670000000000002</v>
@@ -31716,7 +31717,7 @@
         <v>1924</v>
       </c>
       <c r="S364" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="T364">
         <v>16.329999999999998</v>
@@ -32284,7 +32285,7 @@
         <v>4184</v>
       </c>
       <c r="S375" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="T375">
         <v>11.13</v>
@@ -33584,7 +33585,7 @@
         <v>4184</v>
       </c>
       <c r="S401" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="T401">
         <v>-22.15</v>
@@ -34284,7 +34285,7 @@
         <v>2033</v>
       </c>
       <c r="S415" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="T415">
         <v>-25.4</v>
@@ -34493,7 +34494,7 @@
         <v>2064</v>
       </c>
       <c r="S419" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="T419">
         <v>13.77</v>
@@ -34949,7 +34950,7 @@
         <v>2033</v>
       </c>
       <c r="S428" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="T428">
         <v>-25.35</v>
@@ -35055,7 +35056,7 @@
         <v>4184</v>
       </c>
       <c r="S430" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="T430">
         <v>-13.32</v>
@@ -35155,7 +35156,7 @@
         <v>4184</v>
       </c>
       <c r="S432" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="T432">
         <v>-12.97</v>
@@ -36449,7 +36450,7 @@
         <v>692</v>
       </c>
       <c r="S458" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="T458">
         <v>13.77</v>
@@ -36967,7 +36968,7 @@
         <v>4184</v>
       </c>
       <c r="S468" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="T468">
         <v>8.7799999999999994</v>
@@ -37017,7 +37018,7 @@
         <v>4184</v>
       </c>
       <c r="S469" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="T469">
         <v>-22.25</v>
@@ -37070,7 +37071,7 @@
         <v>1456</v>
       </c>
       <c r="S470" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="T470">
         <v>15.67</v>
@@ -38305,7 +38306,7 @@
         <v>4184</v>
       </c>
       <c r="S495" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="T495">
         <v>-21.22</v>
@@ -38358,7 +38359,7 @@
         <v>214</v>
       </c>
       <c r="S496" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="T496">
         <v>8.7799999999999994</v>
@@ -39372,7 +39373,7 @@
         <v>4184</v>
       </c>
       <c r="S514" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="T514">
         <v>-21.17</v>
@@ -39422,7 +39423,7 @@
         <v>4184</v>
       </c>
       <c r="S515" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="T515">
         <v>-4.5</v>
@@ -40966,7 +40967,7 @@
         <v>2819</v>
       </c>
       <c r="S546" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="T546">
         <v>-25.83</v>
@@ -41072,7 +41073,7 @@
         <v>2819</v>
       </c>
       <c r="S548" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="T548">
         <v>-25.45</v>
@@ -41543,7 +41544,7 @@
         <v>2819</v>
       </c>
       <c r="S557" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="T557">
         <v>-25.3</v>
@@ -41755,7 +41756,7 @@
         <v>2819</v>
       </c>
       <c r="S561" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="T561">
         <v>-0.65</v>
@@ -42070,7 +42071,7 @@
         <v>4184</v>
       </c>
       <c r="S567" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="T567">
         <v>-25.42</v>
@@ -42173,7 +42174,7 @@
         <v>214</v>
       </c>
       <c r="S569" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="T569">
         <v>8.7799999999999994</v>
@@ -42276,7 +42277,7 @@
         <v>4184</v>
       </c>
       <c r="S571" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="T571">
         <v>4.8</v>
@@ -42538,7 +42539,7 @@
         <v>214</v>
       </c>
       <c r="S576" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="T576">
         <v>8.7799999999999994</v>
@@ -42591,7 +42592,7 @@
         <v>2819</v>
       </c>
       <c r="S577" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="T577">
         <v>-25.3</v>
@@ -42962,7 +42963,7 @@
         <v>2819</v>
       </c>
       <c r="S584" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="T584">
         <v>-13.8</v>
@@ -43068,7 +43069,7 @@
         <v>2819</v>
       </c>
       <c r="S586" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="T586">
         <v>-24.57</v>
@@ -43383,7 +43384,7 @@
         <v>2819</v>
       </c>
       <c r="S592" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="T592">
         <v>-25.27</v>
@@ -43975,7 +43976,7 @@
         <v>4184</v>
       </c>
       <c r="S603" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="T603">
         <v>7.72</v>
@@ -44484,7 +44485,7 @@
         <v>214</v>
       </c>
       <c r="S613" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="T613">
         <v>8.7799999999999994</v>
@@ -45223,7 +45224,7 @@
         <v>214</v>
       </c>
       <c r="S627" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="T627">
         <v>8.7799999999999994</v>
@@ -45685,7 +45686,7 @@
         <v>4184</v>
       </c>
       <c r="S636" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="T636">
         <v>-8.98</v>
@@ -45738,7 +45739,7 @@
         <v>3301</v>
       </c>
       <c r="S637" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="T637">
         <v>8.48</v>
@@ -45891,7 +45892,7 @@
         <v>4184</v>
       </c>
       <c r="S640" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="T640">
         <v>-4.4800000000000004</v>
@@ -46041,7 +46042,7 @@
         <v>4184</v>
       </c>
       <c r="S643" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="T643">
         <v>-17.77</v>
@@ -46291,7 +46292,7 @@
         <v>4184</v>
       </c>
       <c r="S648" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="T648">
         <v>14.15</v>
@@ -47716,7 +47717,7 @@
         <v>4184</v>
       </c>
       <c r="S675" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="T675">
         <v>-21.13</v>
@@ -47763,7 +47764,7 @@
         <v>4184</v>
       </c>
       <c r="S676" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="T676">
         <v>-17.920000000000002</v>
@@ -48122,7 +48123,7 @@
         <v>4184</v>
       </c>
       <c r="S683" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="T683">
         <v>-13.58</v>
@@ -48222,7 +48223,7 @@
         <v>4184</v>
       </c>
       <c r="S685" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="T685">
         <v>-12.92</v>
@@ -49946,7 +49947,7 @@
         <v>708</v>
       </c>
       <c r="S716" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="T716">
         <v>-20.420000000000002</v>
@@ -50305,7 +50306,7 @@
         <v>4184</v>
       </c>
       <c r="S723" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="T723">
         <v>-15.25</v>
@@ -50458,7 +50459,7 @@
         <v>3738</v>
       </c>
       <c r="S726" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="T726">
         <v>-15.18</v>
@@ -50808,7 +50809,7 @@
         <v>4184</v>
       </c>
       <c r="S733" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="T733">
         <v>-23.55</v>
@@ -51982,7 +51983,7 @@
         <v>214</v>
       </c>
       <c r="S753" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="T753">
         <v>8.7799999999999994</v>
@@ -52130,7 +52131,7 @@
         <v>2274</v>
       </c>
       <c r="S755" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="T755">
         <v>8.8000000000000007</v>
